--- a/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1356915615774528</v>
+        <v>0.1673564803967629</v>
       </c>
       <c r="C2">
-        <v>0.2348919420830815</v>
+        <v>0.6573426014927735</v>
       </c>
       <c r="D2">
-        <v>0.07560280668179893</v>
+        <v>0.9595486229626961</v>
       </c>
       <c r="E2">
-        <v>0.2749596455514862</v>
+        <v>0.9795655276512624</v>
       </c>
       <c r="F2">
-        <v>0.2481730933129285</v>
+        <v>1.001597417975854</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1946488126966524</v>
+        <v>-0.09717246228638296</v>
       </c>
       <c r="C3">
-        <v>0.241613527261567</v>
+        <v>0.5709473934814091</v>
       </c>
       <c r="D3">
-        <v>0.09243828172273941</v>
+        <v>0.6131476725437131</v>
       </c>
       <c r="E3">
-        <v>0.3040366453616067</v>
+        <v>0.7830374656066675</v>
       </c>
       <c r="F3">
-        <v>0.2430966163724481</v>
+        <v>0.8190137599691435</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1965111244282391</v>
+        <v>-0.1587865486592277</v>
       </c>
       <c r="C4">
-        <v>0.2360291137519478</v>
+        <v>0.292352465870846</v>
       </c>
       <c r="D4">
-        <v>0.08558306619683319</v>
+        <v>0.1239581044362055</v>
       </c>
       <c r="E4">
-        <v>0.2925458360613482</v>
+        <v>0.3520768445044427</v>
       </c>
       <c r="F4">
-        <v>0.2263539726087495</v>
+        <v>0.3442294637030879</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2447925384117767</v>
+        <v>0.04921794047849792</v>
       </c>
       <c r="C5">
-        <v>0.2599840016433503</v>
+        <v>0.2316309012071306</v>
       </c>
       <c r="D5">
-        <v>0.1022085730492028</v>
+        <v>0.05607528005897246</v>
       </c>
       <c r="E5">
-        <v>0.3197007554717424</v>
+        <v>0.2368021960602825</v>
       </c>
       <c r="F5">
-        <v>0.2156703614450392</v>
+        <v>0.3275755619518266</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.2636806692312494</v>
-      </c>
-      <c r="C6">
-        <v>0.2777048405265169</v>
-      </c>
-      <c r="D6">
-        <v>0.1202648057254115</v>
-      </c>
-      <c r="E6">
-        <v>0.3467921650288707</v>
-      </c>
-      <c r="F6">
-        <v>0.2374337577776446</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.2766124038551271</v>
-      </c>
-      <c r="C7">
-        <v>0.2984914542300951</v>
-      </c>
-      <c r="D7">
-        <v>0.1305566089398047</v>
-      </c>
-      <c r="E7">
-        <v>0.3613261808114722</v>
-      </c>
-      <c r="F7">
-        <v>0.2510960336913114</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.2456347067521482</v>
-      </c>
-      <c r="C8">
-        <v>0.2872586278891793</v>
-      </c>
-      <c r="D8">
-        <v>0.1313804122516326</v>
-      </c>
-      <c r="E8">
-        <v>0.3624643599743741</v>
-      </c>
-      <c r="F8">
-        <v>0.3077748161463048</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.04597656105406911</v>
-      </c>
-      <c r="C9">
-        <v>0.04597656105406911</v>
-      </c>
-      <c r="D9">
-        <v>0.002113844166358544</v>
-      </c>
-      <c r="E9">
-        <v>0.04597656105406911</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1673564803967629</v>
+        <v>-0.01019667505792274</v>
       </c>
       <c r="C2">
-        <v>0.6573426014927735</v>
+        <v>0.2651573259267139</v>
       </c>
       <c r="D2">
-        <v>0.9595486229626961</v>
+        <v>0.09370580426362109</v>
       </c>
       <c r="E2">
-        <v>0.9795655276512624</v>
+        <v>0.3061140380048277</v>
       </c>
       <c r="F2">
-        <v>1.001597417975854</v>
+        <v>0.3174932645123695</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.09717246228638296</v>
+        <v>0.01598200330380756</v>
       </c>
       <c r="C3">
-        <v>0.5709473934814091</v>
+        <v>0.2434613949423638</v>
       </c>
       <c r="D3">
-        <v>0.6131476725437131</v>
+        <v>0.07230275474488276</v>
       </c>
       <c r="E3">
-        <v>0.7830374656066675</v>
+        <v>0.2688917156494093</v>
       </c>
       <c r="F3">
-        <v>0.8190137599691435</v>
+        <v>0.2829356627206967</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1587865486592277</v>
+        <v>-0.02630075056802729</v>
       </c>
       <c r="C4">
-        <v>0.292352465870846</v>
+        <v>0.252529210783159</v>
       </c>
       <c r="D4">
-        <v>0.1239581044362055</v>
+        <v>0.06708865167695137</v>
       </c>
       <c r="E4">
-        <v>0.3520768445044427</v>
+        <v>0.2590147711559157</v>
       </c>
       <c r="F4">
-        <v>0.3442294637030879</v>
+        <v>0.2822699180497485</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.04921794047849792</v>
+        <v>0.009192281051027068</v>
       </c>
       <c r="C5">
-        <v>0.2316309012071306</v>
+        <v>0.267502854063783</v>
       </c>
       <c r="D5">
-        <v>0.05607528005897246</v>
+        <v>0.07164227496319067</v>
       </c>
       <c r="E5">
-        <v>0.2368021960602825</v>
+        <v>0.2676607460259922</v>
       </c>
       <c r="F5">
-        <v>0.3275755619518266</v>
+        <v>0.3783061641905128</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01019667505792274</v>
+        <v>0.2156134072807172</v>
       </c>
       <c r="C2">
-        <v>0.2651573259267139</v>
+        <v>0.5104705812318155</v>
       </c>
       <c r="D2">
-        <v>0.09370580426362109</v>
+        <v>0.5597049646376884</v>
       </c>
       <c r="E2">
-        <v>0.3061140380048277</v>
+        <v>0.7481343225903276</v>
       </c>
       <c r="F2">
-        <v>0.3174932645123695</v>
+        <v>0.7243069924489576</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01598200330380756</v>
+        <v>0.07078259347676455</v>
       </c>
       <c r="C3">
-        <v>0.2434613949423638</v>
+        <v>0.3937967543584671</v>
       </c>
       <c r="D3">
-        <v>0.07230275474488276</v>
+        <v>0.2924574528699269</v>
       </c>
       <c r="E3">
-        <v>0.2688917156494093</v>
+        <v>0.5407933550534131</v>
       </c>
       <c r="F3">
-        <v>0.2829356627206967</v>
+        <v>0.5421993821439078</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02630075056802729</v>
+        <v>0.2022458033653479</v>
       </c>
       <c r="C4">
-        <v>0.252529210783159</v>
+        <v>0.5029758090258937</v>
       </c>
       <c r="D4">
-        <v>0.06708865167695137</v>
+        <v>0.6072955914828451</v>
       </c>
       <c r="E4">
-        <v>0.2590147711559157</v>
+        <v>0.7792917242489138</v>
       </c>
       <c r="F4">
-        <v>0.2822699180497485</v>
+        <v>0.761291099874567</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.009192281051027068</v>
+        <v>0.1056269426232762</v>
       </c>
       <c r="C5">
-        <v>0.267502854063783</v>
+        <v>0.3853209831470272</v>
       </c>
       <c r="D5">
-        <v>0.07164227496319067</v>
+        <v>0.2947523084012032</v>
       </c>
       <c r="E5">
-        <v>0.2676607460259922</v>
+        <v>0.5429109580780288</v>
       </c>
       <c r="F5">
-        <v>0.3783061641905128</v>
+        <v>0.5388390533604958</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.2315116146747508</v>
+      </c>
+      <c r="C6">
+        <v>0.5190355693975161</v>
+      </c>
+      <c r="D6">
+        <v>0.6636775128766533</v>
+      </c>
+      <c r="E6">
+        <v>0.8146640490881215</v>
+      </c>
+      <c r="F6">
+        <v>0.7905440420027581</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.09265415981041521</v>
+      </c>
+      <c r="C7">
+        <v>0.3465857693131973</v>
+      </c>
+      <c r="D7">
+        <v>0.2074256174716431</v>
+      </c>
+      <c r="E7">
+        <v>0.4554400262072308</v>
+      </c>
+      <c r="F7">
+        <v>0.4514552522066898</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.2923186457898964</v>
+      </c>
+      <c r="C8">
+        <v>0.5389143003675101</v>
+      </c>
+      <c r="D8">
+        <v>0.734479721597224</v>
+      </c>
+      <c r="E8">
+        <v>0.8570179237316008</v>
+      </c>
+      <c r="F8">
+        <v>0.8158868265665942</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.1519280332023545</v>
+      </c>
+      <c r="C9">
+        <v>0.335957238970132</v>
+      </c>
+      <c r="D9">
+        <v>0.2134926424701896</v>
+      </c>
+      <c r="E9">
+        <v>0.4620526403670794</v>
+      </c>
+      <c r="F9">
+        <v>0.4420648348703681</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.2798477600321015</v>
+      </c>
+      <c r="C10">
+        <v>0.4917781050680664</v>
+      </c>
+      <c r="D10">
+        <v>0.5928569493473916</v>
+      </c>
+      <c r="E10">
+        <v>0.7699720445233006</v>
+      </c>
+      <c r="F10">
+        <v>0.7269447888063731</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.1565110834604237</v>
+      </c>
+      <c r="C11">
+        <v>0.3372223941819412</v>
+      </c>
+      <c r="D11">
+        <v>0.198541515633084</v>
+      </c>
+      <c r="E11">
+        <v>0.4455799766967586</v>
+      </c>
+      <c r="F11">
+        <v>0.4229425514680761</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2156134072807172</v>
+        <v>0.07771692647734278</v>
       </c>
       <c r="C2">
-        <v>0.5104705812318155</v>
+        <v>0.494001664178519</v>
       </c>
       <c r="D2">
-        <v>0.5597049646376884</v>
+        <v>0.4064399038399985</v>
       </c>
       <c r="E2">
-        <v>0.7481343225903276</v>
+        <v>0.6375263946222137</v>
       </c>
       <c r="F2">
-        <v>0.7243069924489576</v>
+        <v>0.6414999648744212</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07078259347676455</v>
+        <v>0.2046287817491858</v>
       </c>
       <c r="C3">
-        <v>0.3937967543584671</v>
+        <v>0.5768629073926809</v>
       </c>
       <c r="D3">
-        <v>0.2924574528699269</v>
+        <v>0.7002384789106324</v>
       </c>
       <c r="E3">
-        <v>0.5407933550534131</v>
+        <v>0.8368025328060572</v>
       </c>
       <c r="F3">
-        <v>0.5421993821439078</v>
+        <v>0.8229070327852029</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2022458033653479</v>
+        <v>0.09125273495800906</v>
       </c>
       <c r="C4">
-        <v>0.5029758090258937</v>
+        <v>0.4483188659895491</v>
       </c>
       <c r="D4">
-        <v>0.6072955914828451</v>
+        <v>0.3552272405021807</v>
       </c>
       <c r="E4">
-        <v>0.7792917242489138</v>
+        <v>0.5960094298768944</v>
       </c>
       <c r="F4">
-        <v>0.761291099874567</v>
+        <v>0.5975810616996375</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1056269426232762</v>
+        <v>0.25374129848085</v>
       </c>
       <c r="C5">
-        <v>0.3853209831470272</v>
+        <v>0.6003975769414247</v>
       </c>
       <c r="D5">
-        <v>0.2947523084012032</v>
+        <v>0.8008700048052377</v>
       </c>
       <c r="E5">
-        <v>0.5429109580780288</v>
+        <v>0.8949134063166323</v>
       </c>
       <c r="F5">
-        <v>0.5388390533604958</v>
+        <v>0.8710930469124941</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2315116146747508</v>
+        <v>0.1232924819113544</v>
       </c>
       <c r="C6">
-        <v>0.5190355693975161</v>
+        <v>0.4343337923113413</v>
       </c>
       <c r="D6">
-        <v>0.6636775128766533</v>
+        <v>0.3678743112519078</v>
       </c>
       <c r="E6">
-        <v>0.8146640490881215</v>
+        <v>0.606526430794164</v>
       </c>
       <c r="F6">
-        <v>0.7905440420027581</v>
+        <v>0.6030707379774554</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.09265415981041521</v>
+        <v>0.2862287335415685</v>
       </c>
       <c r="C7">
-        <v>0.3465857693131973</v>
+        <v>0.6098011728780182</v>
       </c>
       <c r="D7">
-        <v>0.2074256174716431</v>
+        <v>0.8494587501165254</v>
       </c>
       <c r="E7">
-        <v>0.4554400262072308</v>
+        <v>0.9216608650238576</v>
       </c>
       <c r="F7">
-        <v>0.4514552522066898</v>
+        <v>0.8901072713674041</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2923186457898964</v>
+        <v>0.09860540898821402</v>
       </c>
       <c r="C8">
-        <v>0.5389143003675101</v>
+        <v>0.3873856125923802</v>
       </c>
       <c r="D8">
-        <v>0.734479721597224</v>
+        <v>0.2559223495544988</v>
       </c>
       <c r="E8">
-        <v>0.8570179237316008</v>
+        <v>0.5058876847231002</v>
       </c>
       <c r="F8">
-        <v>0.8158868265665942</v>
+        <v>0.5043867236243681</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1519280332023545</v>
+        <v>0.3607703471504674</v>
       </c>
       <c r="C9">
-        <v>0.335957238970132</v>
+        <v>0.6436156715191851</v>
       </c>
       <c r="D9">
-        <v>0.2134926424701896</v>
+        <v>0.9577333858632414</v>
       </c>
       <c r="E9">
-        <v>0.4620526403670794</v>
+        <v>0.9786385368782702</v>
       </c>
       <c r="F9">
-        <v>0.4420648348703681</v>
+        <v>0.9252649997741594</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2798477600321015</v>
+        <v>0.1695398884498732</v>
       </c>
       <c r="C10">
-        <v>0.4917781050680664</v>
+        <v>0.3837015019462682</v>
       </c>
       <c r="D10">
-        <v>0.5928569493473916</v>
+        <v>0.2676768073393338</v>
       </c>
       <c r="E10">
-        <v>0.7699720445233006</v>
+        <v>0.5173749195113093</v>
       </c>
       <c r="F10">
-        <v>0.7269447888063731</v>
+        <v>0.4974599041038531</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1565110834604237</v>
+        <v>0.3374360160835732</v>
       </c>
       <c r="C11">
-        <v>0.3372223941819412</v>
+        <v>0.5955736213918028</v>
       </c>
       <c r="D11">
-        <v>0.198541515633084</v>
+        <v>0.7831839435432164</v>
       </c>
       <c r="E11">
-        <v>0.4455799766967586</v>
+        <v>0.8849768039577175</v>
       </c>
       <c r="F11">
-        <v>0.4229425514680761</v>
+        <v>0.8331329670364563</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.07771692647734278</v>
+        <v>0.2226776683031646</v>
       </c>
       <c r="C2">
-        <v>0.494001664178519</v>
+        <v>0.5618053799771385</v>
       </c>
       <c r="D2">
-        <v>0.4064399038399985</v>
+        <v>0.6246702391763954</v>
       </c>
       <c r="E2">
-        <v>0.6375263946222137</v>
+        <v>0.7903608284678558</v>
       </c>
       <c r="F2">
-        <v>0.6414999648744212</v>
+        <v>0.7667232613880856</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2046287817491858</v>
+        <v>0.293438081967545</v>
       </c>
       <c r="C3">
-        <v>0.5768629073926809</v>
+        <v>0.6695240432108801</v>
       </c>
       <c r="D3">
-        <v>0.7002384789106324</v>
+        <v>0.9182272854563196</v>
       </c>
       <c r="E3">
-        <v>0.8368025328060572</v>
+        <v>0.9582417677477431</v>
       </c>
       <c r="F3">
-        <v>0.8229070327852029</v>
+        <v>0.9225146215623552</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09125273495800906</v>
+        <v>0.182530046921793</v>
       </c>
       <c r="C4">
-        <v>0.4483188659895491</v>
+        <v>0.5838921936173209</v>
       </c>
       <c r="D4">
-        <v>0.3552272405021807</v>
+        <v>0.6581603071260018</v>
       </c>
       <c r="E4">
-        <v>0.5960094298768944</v>
+        <v>0.8112707976539041</v>
       </c>
       <c r="F4">
-        <v>0.5975810616996375</v>
+        <v>0.7996088567086325</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.25374129848085</v>
+        <v>0.327844975786004</v>
       </c>
       <c r="C5">
-        <v>0.6003975769414247</v>
+        <v>0.7216035043336653</v>
       </c>
       <c r="D5">
-        <v>0.8008700048052377</v>
+        <v>1.079816604652694</v>
       </c>
       <c r="E5">
-        <v>0.8949134063166323</v>
+        <v>1.03914224466754</v>
       </c>
       <c r="F5">
-        <v>0.8710930469124941</v>
+        <v>0.9977399924889347</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1232924819113544</v>
+        <v>0.2304610288088512</v>
       </c>
       <c r="C6">
-        <v>0.4343337923113413</v>
+        <v>0.5964001741841488</v>
       </c>
       <c r="D6">
-        <v>0.3678743112519078</v>
+        <v>0.7431306070296015</v>
       </c>
       <c r="E6">
-        <v>0.606526430794164</v>
+        <v>0.8620502346322989</v>
       </c>
       <c r="F6">
-        <v>0.6030707379774554</v>
+        <v>0.840742550595554</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2862287335415685</v>
+        <v>0.360861710175336</v>
       </c>
       <c r="C7">
-        <v>0.6098011728780182</v>
+        <v>0.7403235333647489</v>
       </c>
       <c r="D7">
-        <v>0.8494587501165254</v>
+        <v>1.140448443186462</v>
       </c>
       <c r="E7">
-        <v>0.9216608650238576</v>
+        <v>1.067917807317802</v>
       </c>
       <c r="F7">
-        <v>0.8901072713674041</v>
+        <v>1.0175868272775</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.09860540898821402</v>
+        <v>0.2216292893798094</v>
       </c>
       <c r="C8">
-        <v>0.3873856125923802</v>
+        <v>0.5674340590213579</v>
       </c>
       <c r="D8">
-        <v>0.2559223495544988</v>
+        <v>0.6895196896333891</v>
       </c>
       <c r="E8">
-        <v>0.5058876847231002</v>
+        <v>0.8303732230951267</v>
       </c>
       <c r="F8">
-        <v>0.5043867236243681</v>
+        <v>0.8104447324343937</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3607703471504674</v>
+        <v>0.4304460383242469</v>
       </c>
       <c r="C9">
-        <v>0.6436156715191851</v>
+        <v>0.7770904355848363</v>
       </c>
       <c r="D9">
-        <v>0.9577333858632414</v>
+        <v>1.255534736424988</v>
       </c>
       <c r="E9">
-        <v>0.9786385368782702</v>
+        <v>1.120506464249532</v>
       </c>
       <c r="F9">
-        <v>0.9252649997741594</v>
+        <v>1.048053168048187</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1695398884498732</v>
+        <v>0.2885592243077175</v>
       </c>
       <c r="C10">
-        <v>0.3837015019462682</v>
+        <v>0.5810449934012875</v>
       </c>
       <c r="D10">
-        <v>0.2676768073393338</v>
+        <v>0.7354929410298064</v>
       </c>
       <c r="E10">
-        <v>0.5173749195113093</v>
+        <v>0.8576088508345786</v>
       </c>
       <c r="F10">
-        <v>0.4974599041038531</v>
+        <v>0.818446246706525</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.3374360160835732</v>
+        <v>0.4217362328470671</v>
       </c>
       <c r="C11">
-        <v>0.5955736213918028</v>
+        <v>0.7352401290682791</v>
       </c>
       <c r="D11">
-        <v>0.7831839435432164</v>
+        <v>1.136174966075426</v>
       </c>
       <c r="E11">
-        <v>0.8849768039577175</v>
+        <v>1.065915083895254</v>
       </c>
       <c r="F11">
-        <v>0.8331329670364563</v>
+        <v>0.9924380765910319</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/OPA/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.360861710175336</v>
+        <v>0.188856333554674</v>
       </c>
       <c r="C7">
-        <v>0.7403235333647489</v>
+        <v>0.6210211877426164</v>
       </c>
       <c r="D7">
-        <v>1.140448443186462</v>
+        <v>0.8227230598494827</v>
       </c>
       <c r="E7">
-        <v>1.067917807317802</v>
+        <v>0.9070408259000708</v>
       </c>
       <c r="F7">
-        <v>1.0175868272775</v>
+        <v>0.8997464472128907</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2216292893798094</v>
+        <v>0.2018765014077513</v>
       </c>
       <c r="C8">
-        <v>0.5674340590213579</v>
+        <v>0.5836206403444438</v>
       </c>
       <c r="D8">
-        <v>0.6895196896333891</v>
+        <v>0.7462698502533404</v>
       </c>
       <c r="E8">
-        <v>0.8303732230951267</v>
+        <v>0.8638691163905214</v>
       </c>
       <c r="F8">
-        <v>0.8104447324343937</v>
+        <v>0.8522125269166538</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.4304460383242469</v>
+        <v>-0.09022918269035383</v>
       </c>
       <c r="C9">
-        <v>0.7770904355848363</v>
+        <v>0.3486329789925496</v>
       </c>
       <c r="D9">
-        <v>1.255534736424988</v>
+        <v>0.2017908439045041</v>
       </c>
       <c r="E9">
-        <v>1.120506464249532</v>
+        <v>0.4492113577198423</v>
       </c>
       <c r="F9">
-        <v>1.048053168048187</v>
+        <v>0.451488227386921</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2885592243077175</v>
+        <v>-0.009659961070461246</v>
       </c>
       <c r="C10">
-        <v>0.5810449934012875</v>
+        <v>0.414243314843904</v>
       </c>
       <c r="D10">
-        <v>0.7354929410298064</v>
+        <v>0.2785379243470545</v>
       </c>
       <c r="E10">
-        <v>0.8576088508345786</v>
+        <v>0.5277669223691975</v>
       </c>
       <c r="F10">
-        <v>0.818446246706525</v>
+        <v>0.5492252060470605</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.4217362328470671</v>
+        <v>0.02760926664935082</v>
       </c>
       <c r="C11">
-        <v>0.7352401290682791</v>
+        <v>0.3666891604559107</v>
       </c>
       <c r="D11">
-        <v>1.136174966075426</v>
+        <v>0.2015955073104189</v>
       </c>
       <c r="E11">
-        <v>1.065915083895254</v>
+        <v>0.4489938833775121</v>
       </c>
       <c r="F11">
-        <v>0.9924380765910319</v>
+        <v>0.5010404620705597</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
